--- a/AmazonCreateTemplateFile/bin/Debug/zamage.com-1626882450.xlsx
+++ b/AmazonCreateTemplateFile/bin/Debug/zamage.com-1626882450.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDev\AmazonCreateTemplateFile\AmazonCreateTemplateFile\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BE598A-847F-4FEA-BEE4-AEC66B767736}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01598F-C47E-4C83-AAE9-AD1D78628FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -38,48 +38,6 @@
   </si>
   <si>
     <t>https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_9054.jpg?v=1579548392|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_9047.jpg?v=1579548392|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_9059_8ec78917-6ab7-40a4-8dac-127e6bd5bc1e.jpg?v=1579548392|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_5516.jpg?v=1579548392|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_5524.jpg?v=1579548392|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_5540_a5028f57-6805-4060-980a-1f694e0f5b11.jpg?v=1579548392</t>
-  </si>
-  <si>
-    <t>Pullover Track Hoodie Cool Grey (100-301)</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_7465.jpg?v=1579548413|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_7483.jpg?v=1579548413|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_7472.jpg?v=1579548413</t>
-  </si>
-  <si>
-    <t>Premium Side Stripe Zip Pocket Track Pants Grey - White (ZCM4418Z)</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_9096_83c54aba-f036-4845-96b0-230186a0cdd5.jpg?v=1579548394|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_9088.jpg?v=1579548394|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_9107.jpg?v=1579548394|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_5678_1d95f50f-0e83-47c2-9ba4-d543f45ce6d1.jpg?v=1579548394|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_5690_3b14a28e-d5fb-439f-ae17-ca69af6842a7.jpg?v=1579548394|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_5696.jpg?v=1579548394</t>
-  </si>
-  <si>
-    <t>Solid One Stripe Track Jacket Red - White (100-501)</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/1083/2284/products/red_white_track_jacket_front.png?v=1579550775|https://cdn.shopify.com/s/files/1/1083/2284/products/red_white_jacket_back.png?v=1579550775|https://cdn.shopify.com/s/files/1/1083/2284/products/red_white_jacket_suit.png?v=1579550775</t>
-  </si>
-  <si>
-    <t>ZCL ELITE Tee</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/1083/2284/products/ZCL_Elite_Black_Color_Way_copy.png?v=1579549701|https://cdn.shopify.com/s/files/1/1083/2284/products/mockup-02db9090.jpg?v=1579549701|https://cdn.shopify.com/s/files/1/1083/2284/products/mockup-21c7906c.jpg?v=1579549701|https://cdn.shopify.com/s/files/1/1083/2284/products/mockup-3647b048.jpg?v=1579549701|https://cdn.shopify.com/s/files/1/1083/2284/products/mockup-c88d5d8b.jpg?v=1579549701|https://cdn.shopify.com/s/files/1/1083/2284/products/mockup-6f30193a.jpg?v=1579549701|https://cdn.shopify.com/s/files/1/1083/2284/products/mockup-8089e386.jpg?v=1579549701</t>
-  </si>
-  <si>
-    <t>Full Face Mask Black (SFBEAN011)</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/1083/2284/products/black_full_mask_b345b19c-bc09-486f-b847-3bd784673c51.png?v=1579549995</t>
-  </si>
-  <si>
-    <t>Solid One Stripe Track Jacket Grey - White (100-501)</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/1083/2284/products/grey_white_jacket_front.png?v=1579550763|https://cdn.shopify.com/s/files/1/1083/2284/products/grey_white_jacket_back.png?v=1579550763|https://cdn.shopify.com/s/files/1/1083/2284/products/grey_white_jacket.png?v=1579550763</t>
-  </si>
-  <si>
-    <t>Solid Track Pants Cream (100-400)</t>
-  </si>
-  <si>
-    <t>https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_4559.jpg?v=1579550671|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_4549.jpg?v=1579550671|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_4563.jpg?v=1579550671|https://cdn.shopify.com/s/files/1/1083/2284/products/IMG_4576.jpg?v=1579550671</t>
   </si>
 </sst>
 </file>
@@ -428,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -460,62 +418,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AmazonCreateTemplateFile/bin/Debug/zamage.com-1626882450.xlsx
+++ b/AmazonCreateTemplateFile/bin/Debug/zamage.com-1626882450.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ProjectDev\AmazonCreateTemplateFile\AmazonCreateTemplateFile\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A01598F-C47E-4C83-AAE9-AD1D78628FAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3AFA483-E7D4-49F3-91FB-2D5550DE9347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3555" yWindow="1815" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,6 +418,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
